--- a/Portfolio_Analytics/OrderBook.xlsx
+++ b/Portfolio_Analytics/OrderBook.xlsx
@@ -13,7 +13,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Sheet 2'!$A$1:$E$151</definedName>
-    <definedName name="Order">Order1!$B$2:$J$4</definedName>
+    <definedName name="Order">Order1!$B$2:$J$3</definedName>
     <definedName name="test">Tabelle1!$A$2:$C$5</definedName>
   </definedNames>
   <calcPr calcId="0" concurrentCalc="0"/>
@@ -582,7 +582,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A4" sqref="A4:XFD4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
@@ -666,17 +666,17 @@
       <c r="D4" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" t="s">
         <v>48</v>
       </c>
       <c r="F4" t="n">
         <v>0.08</v>
       </c>
       <c r="G4" t="n">
-        <v>59.9472</v>
+        <v>59.4044</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>43048.3784722222</v>
+        <v>43049.2048611111</v>
       </c>
       <c r="I4" t="n">
         <v>58</v>
@@ -684,10 +684,6 @@
       <c r="J4" s="1" t="n">
         <v>43046</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="H5" s="1"/>
-      <c r="J5" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
